--- a/biology/Médecine/Ganglion_inférieur_du_nerf_glosso-pharyngien/Ganglion_inférieur_du_nerf_glosso-pharyngien.xlsx
+++ b/biology/Médecine/Ganglion_inférieur_du_nerf_glosso-pharyngien/Ganglion_inférieur_du_nerf_glosso-pharyngien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ganglion_inf%C3%A9rieur_du_nerf_glosso-pharyngien</t>
+          <t>Ganglion_inférieur_du_nerf_glosso-pharyngien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ganglion inférieur du nerf glosso-pharyngien (ou ganglion d’Andersch ou ganglion pétreux ) est un ganglion sensitif du nerf glosso-pharyngien. Il est plus grand que le ganglion supérieur du nerf glosso-pharyngien.
-Il est situé dans le foramen jugulaire dans la fossette pétreuse (ou fossette pyramidale du ganglion d’Andersch)[1].
+Il est situé dans le foramen jugulaire dans la fossette pétreuse (ou fossette pyramidale du ganglion d’Andersch).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ganglion_inf%C3%A9rieur_du_nerf_glosso-pharyngien</t>
+          <t>Ganglion_inférieur_du_nerf_glosso-pharyngien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Zone d'innervation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les neurones pseudo-unipolaires du ganglion inférieur du nerf glossopharyngien assurent l'innervation sensorielle des zones autour de la langue et du pharynx :
 innervation des papilles gustatives sur le 1/3 postérieur de la langue,
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ganglion_inf%C3%A9rieur_du_nerf_glosso-pharyngien</t>
+          <t>Ganglion_inférieur_du_nerf_glosso-pharyngien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Nerf tympanique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf tympanique est la première branche du nerf glossopharyngien. Il se ramifie au niveau du ce ganglion.
 Il est important de noter que les axones qui forment le nerf tympanique ne font pas de synapse dans le ganglion inférieur où ils n'ont pas leurs corps cellulaires. Les corps cellulaires neuronaux des axones qui forment le nerf tympanique se trouvent dans le noyau salivaire inférieur et dans le ganglion supérieur du nerf glossopharyngien.
